--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban\config\Datas\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE6A64-398F-44D7-B4FB-EA85E08FA9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6465EADB-1D53-48BA-A0BB-6EB95D2E3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="108">
   <si>
     <t>##</t>
   </si>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>asdfa2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999-8-4 10:09:09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-1-1 00:00:00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -546,6 +558,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -824,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AB9" t="s">
         <v>58</v>
@@ -1468,7 +1481,7 @@
         <v>56</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="AB10" t="s">
         <v>58</v>
@@ -1557,8 +1570,8 @@
       <c r="X11" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>73</v>
+      <c r="Y11" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="AB11" t="s">
         <v>58</v>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6465EADB-1D53-48BA-A0BB-6EB95D2E3D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF94F52-6FEF-46B5-98DF-6440BD2AB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="1365" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>row:true</t>
-  </si>
-  <si>
-    <t>title_rows:4</t>
-  </si>
-  <si>
     <t>__type__</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>k15</t>
   </si>
   <si>
-    <t>是否导出</t>
-  </si>
-  <si>
     <t>禁止</t>
   </si>
   <si>
@@ -161,15 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 随便填</t>
-  </si>
-  <si>
-    <t>第4行也是标题行</t>
-  </si>
-  <si>
-    <t>无所谓</t>
-  </si>
-  <si>
-    <t>这样子</t>
   </si>
   <si>
     <t xml:space="preserve"> DemoD2</t>
@@ -474,6 +456,10 @@
   </si>
   <si>
     <t>2020-1-1 00:00:00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出标记</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -503,12 +489,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -555,10 +543,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -835,15 +823,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
@@ -864,374 +853,452 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="5"/>
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>19</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>29</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="AB3" t="s">
         <v>38</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AJ3" t="s">
         <v>41</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>13234234234</v>
+      </c>
+      <c r="H5">
+        <v>1.28</v>
+      </c>
+      <c r="I5">
+        <v>1.23457891</v>
+      </c>
+      <c r="J5">
+        <v>1234</v>
+      </c>
+      <c r="K5">
+        <v>1234</v>
+      </c>
+      <c r="L5">
+        <v>111111111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5">
+        <v>1988</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
+      <c r="W5" t="s">
         <v>49</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>50</v>
+      <c r="A6" t="b">
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>10000</v>
+        <v>198704</v>
       </c>
       <c r="G6">
-        <v>13234234234</v>
+        <v>34523452345</v>
       </c>
       <c r="H6">
-        <v>1.28</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>1.23457891</v>
+        <v>19870421.198808201</v>
       </c>
       <c r="J6">
-        <v>1234</v>
+        <v>453234</v>
       </c>
       <c r="K6">
-        <v>1234</v>
-      </c>
-      <c r="L6">
-        <v>111111111</v>
+        <v>-345</v>
+      </c>
+      <c r="L6" s="1">
+        <v>112233445566</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O6">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="S6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="W6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AB6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AC6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="AD6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" t="b">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>198704</v>
+        <v>10001</v>
       </c>
       <c r="G7">
-        <v>34523452345</v>
+        <v>13234234234</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="I7">
-        <v>19870421.198808201</v>
+        <v>1.23457891</v>
       </c>
       <c r="J7">
-        <v>453234</v>
+        <v>1234</v>
       </c>
       <c r="K7">
-        <v>-345</v>
-      </c>
-      <c r="L7" s="1">
-        <v>112233445566</v>
+        <v>1234</v>
+      </c>
+      <c r="L7">
+        <v>111111111</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="O7">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="V7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="AC7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AD7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AE7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK7" t="s">
         <v>78</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1240,10 +1307,10 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="G8">
         <v>13234234234</v>
@@ -1264,69 +1331,69 @@
         <v>111111111</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="AC8" t="s">
         <v>53</v>
       </c>
-      <c r="S8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="AD8" t="s">
         <v>54</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AE8" t="s">
         <v>55</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AF8" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="AG8" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AH8" t="s">
         <v>58</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AI8" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AJ8" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>66</v>
-      </c>
       <c r="AK8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1335,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="G9">
         <v>13234234234</v>
@@ -1359,69 +1426,69 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="AC9" t="s">
         <v>53</v>
       </c>
-      <c r="S9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="AD9" t="s">
         <v>54</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AE9" t="s">
         <v>55</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AF9" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AG9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH9" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AI9" t="s">
         <v>59</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AJ9" t="s">
         <v>60</v>
       </c>
-      <c r="AE9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>66</v>
-      </c>
       <c r="AK9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1430,10 +1497,10 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="G10">
         <v>13234234234</v>
@@ -1454,69 +1521,64 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="V10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" t="s">
         <v>52</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="AC10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="AD10" t="s">
         <v>54</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AE10" t="s">
         <v>55</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AF10" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AG10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH10" t="s">
         <v>58</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AI10" t="s">
         <v>59</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AJ10" t="s">
         <v>60</v>
       </c>
-      <c r="AE10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>66</v>
-      </c>
       <c r="AK10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1525,10 +1587,10 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="G11">
         <v>13234234234</v>
@@ -1549,64 +1611,64 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="T11" s="3"/>
       <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" t="s">
         <v>54</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AE11" t="s">
         <v>55</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AF11" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AG11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH11" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AI11" t="s">
         <v>59</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AJ11" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>66</v>
-      </c>
       <c r="AK11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1615,13 +1677,13 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>10002</v>
-      </c>
-      <c r="G12">
-        <v>13234234234</v>
+        <v>10003</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
       </c>
       <c r="H12">
         <v>1.28</v>
@@ -1639,64 +1701,69 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB12" t="s">
         <v>52</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="AC12" t="s">
         <v>53</v>
       </c>
-      <c r="T12" s="3"/>
-      <c r="V12" t="s">
+      <c r="AD12" t="s">
         <v>54</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AE12" t="s">
         <v>55</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AF12" t="s">
         <v>56</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="AG12" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AH12" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AI12" t="s">
         <v>59</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AJ12" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>66</v>
-      </c>
       <c r="AK12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1705,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>10003</v>
-      </c>
-      <c r="G13" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>13234234234</v>
       </c>
       <c r="H13">
         <v>1.28</v>
@@ -1729,69 +1796,69 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O13">
         <v>1988</v>
       </c>
       <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V13" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" t="s">
         <v>52</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="AC13" t="s">
         <v>53</v>
       </c>
-      <c r="S13" t="s">
-        <v>96</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="AD13" t="s">
         <v>54</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AF13" t="s">
         <v>56</v>
       </c>
-      <c r="Y13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AG13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AI13" t="s">
         <v>59</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AJ13" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>66</v>
-      </c>
       <c r="AK13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1800,10 +1867,10 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G14">
         <v>13234234234</v>
@@ -1824,159 +1891,64 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O14">
         <v>1988</v>
       </c>
       <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
+      </c>
+      <c r="X14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="s">
         <v>52</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="AC14" t="s">
         <v>53</v>
       </c>
-      <c r="S14" t="s">
-        <v>97</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" t="s">
+      <c r="AD14" t="s">
         <v>54</v>
       </c>
-      <c r="W14" t="s">
+      <c r="AE14" t="s">
         <v>55</v>
       </c>
-      <c r="X14" t="s">
+      <c r="AF14" t="s">
         <v>56</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="AG14" t="s">
         <v>57</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AH14" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AI14" t="s">
         <v>59</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AJ14" t="s">
         <v>60</v>
       </c>
-      <c r="AE14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>66</v>
-      </c>
       <c r="AK14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>128</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15">
-        <v>13234234234</v>
-      </c>
-      <c r="H15">
-        <v>1.28</v>
-      </c>
-      <c r="I15">
-        <v>1.23457891</v>
-      </c>
-      <c r="J15">
-        <v>1234</v>
-      </c>
-      <c r="K15">
-        <v>1234</v>
-      </c>
-      <c r="L15">
-        <v>111111111</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15">
-        <v>1988</v>
-      </c>
-      <c r="P15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V15" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" t="s">
-        <v>55</v>
-      </c>
-      <c r="X15" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF94F52-6FEF-46B5-98DF-6440BD2AB959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A79F3E-DDFC-41C3-B92F-330D87355397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="1365" windowWidth="27645" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="630" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="87">
   <si>
     <t>##</t>
   </si>
@@ -208,52 +208,10 @@
     <t>测试别名,1,2,DemoE1,1,2,3</t>
   </si>
   <si>
-    <t>qiang</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>DemoD2,3,4</t>
-  </si>
-  <si>
-    <t>11,22</t>
-  </si>
-  <si>
-    <t>22,33,44</t>
-  </si>
-  <si>
     <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2;4;6</t>
-  </si>
-  <si>
-    <t>2,4,7</t>
-  </si>
-  <si>
-    <t>2,4,8</t>
-  </si>
-  <si>
-    <t>2,4,9</t>
-  </si>
-  <si>
-    <t>2,4,10</t>
-  </si>
-  <si>
-    <t>2,4,11</t>
-  </si>
-  <si>
-    <t>2,4,12</t>
-  </si>
-  <si>
-    <t>1,10,2,20</t>
-  </si>
-  <si>
-    <t>3,true</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,4</t>
   </si>
   <si>
     <t>测试别名,1,2,DemoE1,1,2,5</t>
@@ -285,10 +243,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>test/b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -302,23 +256,6 @@
   </si>
   <si>
     <t>key3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>asdfa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -467,9 +404,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,9 +472,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -823,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -903,10 +836,10 @@
       <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="5"/>
+      <c r="S2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="4"/>
       <c r="V2" t="s">
         <v>17</v>
       </c>
@@ -951,8 +884,8 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>102</v>
+      <c r="A3" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1058,10 +991,10 @@
         <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="V5" t="s">
         <v>48</v>
@@ -1072,7 +1005,7 @@
       <c r="X5" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AB5" t="s">
@@ -1107,137 +1040,80 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" t="b">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>198704</v>
-      </c>
-      <c r="G6">
-        <v>34523452345</v>
-      </c>
-      <c r="H6">
-        <v>2.5</v>
-      </c>
-      <c r="I6">
-        <v>19870421.198808201</v>
-      </c>
-      <c r="J6">
-        <v>453234</v>
-      </c>
-      <c r="K6">
-        <v>-345</v>
-      </c>
-      <c r="L6" s="1">
-        <v>112233445566</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
       <c r="O6">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s">
         <v>64</v>
-      </c>
-      <c r="S6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>10001</v>
-      </c>
-      <c r="G7">
-        <v>13234234234</v>
-      </c>
-      <c r="H7">
-        <v>1.28</v>
-      </c>
-      <c r="I7">
-        <v>1.23457891</v>
-      </c>
-      <c r="J7">
-        <v>1234</v>
-      </c>
-      <c r="K7">
-        <v>1234</v>
-      </c>
-      <c r="L7">
-        <v>111111111</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
       <c r="O7">
         <v>1988</v>
       </c>
@@ -1248,22 +1124,13 @@
         <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="AB7" t="s">
         <v>52</v>
@@ -1293,46 +1160,16 @@
         <v>60</v>
       </c>
       <c r="AK7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>10002</v>
-      </c>
-      <c r="G8">
-        <v>13234234234</v>
-      </c>
-      <c r="H8">
-        <v>1.28</v>
-      </c>
-      <c r="I8">
-        <v>1.23457891</v>
-      </c>
-      <c r="J8">
-        <v>1234</v>
-      </c>
-      <c r="K8">
-        <v>1234</v>
-      </c>
-      <c r="L8">
-        <v>111111111</v>
-      </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
       <c r="O8">
         <v>1988</v>
       </c>
@@ -1343,10 +1180,10 @@
         <v>47</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>98</v>
+        <v>74</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="V8" t="s">
         <v>48</v>
@@ -1357,8 +1194,8 @@
       <c r="X8" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>99</v>
+      <c r="Y8" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="AB8" t="s">
         <v>52</v>
@@ -1388,24 +1225,21 @@
         <v>60</v>
       </c>
       <c r="AK8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="G9">
         <v>13234234234</v>
@@ -1437,12 +1271,7 @@
       <c r="Q9" t="s">
         <v>47</v>
       </c>
-      <c r="S9" t="s">
-        <v>89</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="T9" s="2"/>
       <c r="V9" t="s">
         <v>48</v>
       </c>
@@ -1452,8 +1281,8 @@
       <c r="X9" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>100</v>
+      <c r="Y9" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="AB9" t="s">
         <v>52</v>
@@ -1483,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="AK9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -1497,10 +1326,10 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="G10">
         <v>13234234234</v>
@@ -1532,7 +1361,7 @@
       <c r="Q10" t="s">
         <v>47</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="2"/>
       <c r="V10" t="s">
         <v>48</v>
       </c>
@@ -1542,8 +1371,8 @@
       <c r="X10" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>101</v>
+      <c r="Y10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="AB10" t="s">
         <v>52</v>
@@ -1573,7 +1402,7 @@
         <v>60</v>
       </c>
       <c r="AK10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
@@ -1587,13 +1416,13 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>10002</v>
-      </c>
-      <c r="G11">
-        <v>13234234234</v>
+        <v>10003</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
       </c>
       <c r="H11">
         <v>1.28</v>
@@ -1622,7 +1451,12 @@
       <c r="Q11" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="V11" t="s">
         <v>48</v>
       </c>
@@ -1632,8 +1466,8 @@
       <c r="X11" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>51</v>
+      <c r="Y11" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AB11" t="s">
         <v>52</v>
@@ -1663,7 +1497,7 @@
         <v>60</v>
       </c>
       <c r="AK11" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
@@ -1677,13 +1511,13 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>10003</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>13234234234</v>
       </c>
       <c r="H12">
         <v>1.28</v>
@@ -1713,10 +1547,10 @@
         <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="V12" t="s">
         <v>48</v>
@@ -1727,8 +1561,8 @@
       <c r="X12" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="2" t="s">
-        <v>67</v>
+      <c r="Y12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
         <v>52</v>
@@ -1758,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="AK12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
@@ -1772,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1808,10 +1642,10 @@
         <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="V13" t="s">
         <v>48</v>
@@ -1822,7 +1656,7 @@
       <c r="X13" t="s">
         <v>50</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AB13" t="s">
@@ -1853,102 +1687,7 @@
         <v>60</v>
       </c>
       <c r="AK13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14">
-        <v>13234234234</v>
-      </c>
-      <c r="H14">
-        <v>1.28</v>
-      </c>
-      <c r="I14">
-        <v>1.23457891</v>
-      </c>
-      <c r="J14">
-        <v>1234</v>
-      </c>
-      <c r="K14">
-        <v>1234</v>
-      </c>
-      <c r="L14">
-        <v>111111111</v>
-      </c>
-      <c r="M14" t="s">
-        <v>45</v>
-      </c>
-      <c r="O14">
-        <v>1988</v>
-      </c>
-      <c r="P14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="S14" t="s">
-        <v>91</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="V14" t="s">
-        <v>48</v>
-      </c>
-      <c r="W14" t="s">
-        <v>49</v>
-      </c>
-      <c r="X14" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A79F3E-DDFC-41C3-B92F-330D87355397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0E98E-D4E7-400C-927E-B1CC709D0E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="630" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3045" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1170,6 +1170,9 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
       <c r="O8">
         <v>1988</v>
       </c>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0E98E-D4E7-400C-927E-B1CC709D0E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24193112-CBC3-4C9E-9E0F-3F2C4C1F9AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3045" windowWidth="26100" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
   <si>
     <t>##</t>
   </si>
@@ -70,9 +70,6 @@
     <t>x13</t>
   </si>
   <si>
-    <t>x14</t>
-  </si>
-  <si>
     <t>v2</t>
   </si>
   <si>
@@ -106,15 +103,6 @@
     <t>k7</t>
   </si>
   <si>
-    <t>k8</t>
-  </si>
-  <si>
-    <t>k9</t>
-  </si>
-  <si>
-    <t>k15</t>
-  </si>
-  <si>
     <t>禁止</t>
   </si>
   <si>
@@ -206,9 +194,6 @@
   </si>
   <si>
     <t>测试别名,1,2,DemoE1,1,2,3</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>2020-01-01 00:00:00</t>
@@ -397,6 +382,74 @@
   </si>
   <si>
     <t>导出标记</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;sep=,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;sep=,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;sep=,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;sep=,</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +812,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,120 +886,120 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
-        <v>16</v>
+      <c r="Q2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="T2" s="4"/>
       <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>30</v>
+      <c r="AI2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="AB3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AG3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AJ3" t="s">
         <v>37</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -979,69 +1032,69 @@
         <v>111111111</v>
       </c>
       <c r="M5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5">
         <v>1988</v>
       </c>
       <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="AB5" t="s">
         <v>48</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AC5" t="s">
         <v>49</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AD5" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AE5" t="s">
         <v>51</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>52</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>53</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AH5" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AI5" t="s">
         <v>55</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AJ5" t="s">
         <v>56</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AK5" t="s">
         <v>57</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1053,63 +1106,63 @@
         <v>1988</v>
       </c>
       <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>48</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
         <v>49</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AD6" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AE6" t="s">
         <v>51</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>53</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AH6" t="s">
         <v>54</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AI6" t="s">
         <v>55</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AJ6" t="s">
         <v>56</v>
       </c>
-      <c r="AG6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>59</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1118,54 +1171,54 @@
         <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" t="s">
         <v>52</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>53</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AH7" t="s">
         <v>54</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>55</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AJ7" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>60</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1177,63 +1230,63 @@
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
         <v>48</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AC8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AD8" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>53</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AH8" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>55</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AJ8" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>60</v>
-      </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1263,64 +1316,64 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T9" s="2"/>
       <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="s">
         <v>48</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AC9" t="s">
         <v>49</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AD9" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" t="s">
         <v>52</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AH9" t="s">
         <v>54</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>55</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AJ9" t="s">
         <v>56</v>
       </c>
-      <c r="AG9" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>60</v>
-      </c>
       <c r="AK9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1353,64 +1406,64 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T10" s="2"/>
       <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" t="s">
         <v>48</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AC10" t="s">
         <v>49</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AD10" t="s">
         <v>50</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AE10" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AF10" t="s">
         <v>52</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AH10" t="s">
         <v>54</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AI10" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AJ10" t="s">
         <v>56</v>
       </c>
-      <c r="AG10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>60</v>
-      </c>
       <c r="AK10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1424,8 +1477,8 @@
       <c r="F11">
         <v>10003</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
+      <c r="G11">
+        <v>1213123</v>
       </c>
       <c r="H11">
         <v>1.28</v>
@@ -1443,69 +1496,69 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X11" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S11" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" t="s">
         <v>48</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AC11" t="s">
         <v>49</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AD11" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" t="s">
         <v>52</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AG11" t="s">
         <v>53</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AH11" t="s">
         <v>54</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AI11" t="s">
         <v>55</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AJ11" t="s">
         <v>56</v>
       </c>
-      <c r="AG11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>60</v>
-      </c>
       <c r="AK11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1516,8 +1569,8 @@
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>46</v>
+      <c r="F12">
+        <v>2314</v>
       </c>
       <c r="G12">
         <v>13234234234</v>
@@ -1538,69 +1591,69 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S12" t="s">
-        <v>76</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="AB12" t="s">
         <v>48</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AC12" t="s">
         <v>49</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AD12" t="s">
         <v>50</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AE12" t="s">
         <v>51</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AF12" t="s">
         <v>52</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AG12" t="s">
         <v>53</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AH12" t="s">
         <v>54</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AI12" t="s">
         <v>55</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AJ12" t="s">
         <v>56</v>
       </c>
-      <c r="AG12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>60</v>
-      </c>
       <c r="AK12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1611,8 +1664,8 @@
       <c r="E13">
         <v>128</v>
       </c>
-      <c r="F13" t="s">
-        <v>46</v>
+      <c r="F13">
+        <v>1231</v>
       </c>
       <c r="G13">
         <v>13234234234</v>
@@ -1633,64 +1686,64 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O13">
         <v>1988</v>
       </c>
       <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>71</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="AB13" t="s">
         <v>48</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AC13" t="s">
         <v>49</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AD13" t="s">
         <v>50</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AE13" t="s">
         <v>51</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AF13" t="s">
         <v>52</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AG13" t="s">
         <v>53</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AH13" t="s">
         <v>54</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AI13" t="s">
         <v>55</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AJ13" t="s">
         <v>56</v>
       </c>
-      <c r="AG13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>60</v>
-      </c>
       <c r="AK13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24193112-CBC3-4C9E-9E0F-3F2C4C1F9AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D435089-B368-4E2B-BB20-AB3073B456FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1185" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>##</t>
   </si>
@@ -88,21 +88,9 @@
     <t>k2</t>
   </si>
   <si>
-    <t>k3</t>
-  </si>
-  <si>
-    <t>k4</t>
-  </si>
-  <si>
     <t>k5</t>
   </si>
   <si>
-    <t>k6</t>
-  </si>
-  <si>
-    <t>k7</t>
-  </si>
-  <si>
     <t>禁止</t>
   </si>
   <si>
@@ -172,19 +160,7 @@
     <t>1,2,4</t>
   </si>
   <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t>1,2,6</t>
-  </si>
-  <si>
     <t>1,2,7</t>
-  </si>
-  <si>
-    <t>1,2,8</t>
-  </si>
-  <si>
-    <t>1,2,9</t>
   </si>
   <si>
     <t>1,2,3,4</t>
@@ -449,6 +425,220 @@
         <scheme val="minor"/>
       </rPr>
       <t>&amp;sep=,</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD3</t>
+  </si>
+  <si>
+    <t>DemoD2,1,3</t>
+  </si>
+  <si>
+    <t>key4</t>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.9</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:10</t>
+  </si>
+  <si>
+    <t>1;2;4</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,true,3,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2,DemoE1,1,2,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD4</t>
+  </si>
+  <si>
+    <t>DemoD2,1,4</t>
+  </si>
+  <si>
+    <t>key5</t>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,3,6</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.10</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:11</t>
+  </si>
+  <si>
+    <t>1;2;5</t>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+  </si>
+  <si>
+    <t>1,true,4,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2,DemoE1,1,2,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD5</t>
+  </si>
+  <si>
+    <t>DemoD2,1,5</t>
+  </si>
+  <si>
+    <t>key6</t>
+  </si>
+  <si>
+    <r>
+      <t>asdfa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>2,3,7</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.11</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:12</t>
+  </si>
+  <si>
+    <t>1;2;6</t>
+  </si>
+  <si>
+    <t>1,2,3,7</t>
+  </si>
+  <si>
+    <t>1,true,5,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2,DemoE1,1,2,14</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1;2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -809,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,16 +1021,16 @@
     <col min="24" max="24" width="14.125" customWidth="1"/>
     <col min="25" max="25" width="20.375" customWidth="1"/>
     <col min="26" max="26" width="14.125" customWidth="1"/>
-    <col min="36" max="36" width="11.5" customWidth="1"/>
-    <col min="37" max="37" width="28.75" customWidth="1"/>
+    <col min="32" max="32" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -887,10 +1077,10 @@
         <v>15</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="T2" s="4"/>
       <c r="V2" t="s">
@@ -914,92 +1104,68 @@
       <c r="AD2" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>84</v>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" t="s">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>36</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1011,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>13234234234</v>
@@ -1032,69 +1198,57 @@
         <v>111111111</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O5">
         <v>1988</v>
       </c>
       <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S5" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="AB5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD5" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AE5" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>49</v>
       </c>
-      <c r="AD5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1102,123 +1256,105 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
       <c r="O6">
         <v>1988</v>
       </c>
       <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="AB6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="W6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD6" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AE6" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
       <c r="O7">
         <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" t="s">
         <v>48</v>
       </c>
-      <c r="AC7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>52</v>
       </c>
-      <c r="AG7" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1226,67 +1362,58 @@
       <c r="E8">
         <v>4</v>
       </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s">
         <v>44</v>
       </c>
-      <c r="W8" t="s">
+      <c r="AC8" t="s">
         <v>45</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AD8" t="s">
         <v>46</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" t="s">
         <v>48</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>52</v>
       </c>
       <c r="AG8" t="s">
         <v>53</v>
       </c>
-      <c r="AH8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1295,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>10001</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>13234234234</v>
@@ -1316,64 +1443,52 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T9" s="2"/>
       <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB9" t="s">
         <v>44</v>
       </c>
-      <c r="W9" t="s">
+      <c r="AC9" t="s">
         <v>45</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AD9" t="s">
         <v>46</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AE9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" t="s">
         <v>48</v>
       </c>
-      <c r="AC9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>52</v>
-      </c>
       <c r="AG9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH9" t="s">
         <v>54</v>
       </c>
-      <c r="AI9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>62</v>
-      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1385,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>10002</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>13234234234</v>
@@ -1406,64 +1521,52 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T10" s="2"/>
       <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" t="s">
         <v>44</v>
       </c>
-      <c r="W10" t="s">
+      <c r="AC10" t="s">
         <v>45</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AD10" t="s">
         <v>46</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AE10" t="s">
         <v>47</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AF10" t="s">
         <v>48</v>
       </c>
-      <c r="AC10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>52</v>
-      </c>
       <c r="AG10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI10" t="s">
         <v>55</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1475,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>10003</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>1213123</v>
@@ -1496,69 +1599,57 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X11" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="Y11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB11" t="s">
         <v>44</v>
       </c>
-      <c r="W11" t="s">
+      <c r="AC11" t="s">
         <v>45</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AD11" t="s">
         <v>46</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF11" t="s">
         <v>48</v>
       </c>
-      <c r="AC11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>52</v>
-      </c>
       <c r="AG11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="s">
         <v>56</v>
       </c>
-      <c r="AK11" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1570,7 +1661,7 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>2314</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>13234234234</v>
@@ -1591,69 +1682,57 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="AB12" t="s">
         <v>44</v>
       </c>
-      <c r="W12" t="s">
+      <c r="AC12" t="s">
         <v>45</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AD12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AE12" t="s">
         <v>47</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AF12" t="s">
         <v>48</v>
       </c>
-      <c r="AC12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>52</v>
-      </c>
       <c r="AG12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1665,7 +1744,7 @@
         <v>128</v>
       </c>
       <c r="F13">
-        <v>1231</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>13234234234</v>
@@ -1686,64 +1765,301 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O13">
         <v>1988</v>
       </c>
       <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" t="s">
-        <v>71</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" t="s">
+      <c r="AB13" t="s">
         <v>44</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AC13" t="s">
         <v>45</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AD13" t="s">
         <v>46</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AE13" t="s">
         <v>47</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AF13" t="s">
         <v>48</v>
       </c>
-      <c r="AC13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>52</v>
-      </c>
       <c r="AG13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>13234234234</v>
+      </c>
+      <c r="H14">
+        <v>1.28</v>
+      </c>
+      <c r="I14">
+        <v>1.23457891</v>
+      </c>
+      <c r="J14">
+        <v>1234</v>
+      </c>
+      <c r="K14">
+        <v>1234</v>
+      </c>
+      <c r="L14">
+        <v>111111111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <v>1989</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>128</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>13234234234</v>
+      </c>
+      <c r="H15">
+        <v>1.28</v>
+      </c>
+      <c r="I15">
+        <v>1.23457891</v>
+      </c>
+      <c r="J15">
+        <v>1234</v>
+      </c>
+      <c r="K15">
+        <v>1234</v>
+      </c>
+      <c r="L15">
+        <v>111111111</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15">
+        <v>1990</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15" t="s">
+        <v>92</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V15" t="s">
+        <v>94</v>
+      </c>
+      <c r="W15" t="s">
+        <v>95</v>
+      </c>
+      <c r="X15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>13234234234</v>
+      </c>
+      <c r="H16">
+        <v>1.28</v>
+      </c>
+      <c r="I16">
+        <v>1.23457891</v>
+      </c>
+      <c r="J16">
+        <v>1234</v>
+      </c>
+      <c r="K16">
+        <v>1234</v>
+      </c>
+      <c r="L16">
+        <v>111111111</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16">
+        <v>1991</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V16" t="s">
+        <v>106</v>
+      </c>
+      <c r="W16" t="s">
+        <v>107</v>
+      </c>
+      <c r="X16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D435089-B368-4E2B-BB20-AB3073B456FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE4E435-93DB-4F0A-9436-BB09D6BB6344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1185" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,6 +1309,9 @@
       <c r="B7" t="s">
         <v>36</v>
       </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -1356,6 +1359,9 @@
       <c r="B8" t="s">
         <v>36</v>
       </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
       <c r="D8">
         <v>5</v>
       </c>
@@ -1414,6 +1420,9 @@
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>36</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>5</v>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE4E435-93DB-4F0A-9436-BB09D6BB6344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900990B-5E43-457B-B4B7-5630DFF09E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31170" yWindow="2640" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
   <si>
     <t>__type__</t>
   </si>
@@ -357,10 +354,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>导出标记</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>x14</t>
     </r>
@@ -618,28 +611,50 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1;2;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1;2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,280 +1041,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="4"/>
-      <c r="V2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
         <v>35</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>13234234234</v>
+      </c>
+      <c r="H4">
+        <v>1.28</v>
+      </c>
+      <c r="I4">
+        <v>1.23457891</v>
+      </c>
+      <c r="J4">
+        <v>1234</v>
+      </c>
+      <c r="K4">
+        <v>1234</v>
+      </c>
+      <c r="L4">
+        <v>111111111</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>1988</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>13234234234</v>
-      </c>
-      <c r="H5">
-        <v>1.28</v>
-      </c>
-      <c r="I5">
-        <v>1.23457891</v>
-      </c>
-      <c r="J5">
-        <v>1234</v>
-      </c>
-      <c r="K5">
-        <v>1234</v>
-      </c>
-      <c r="L5">
-        <v>111111111</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>1988</v>
       </c>
       <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
         <v>38</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
       </c>
       <c r="S5" t="s">
         <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
         <v>40</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>41</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="AC5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>47</v>
       </c>
-      <c r="AF5" t="s">
-        <v>48</v>
-      </c>
       <c r="AG5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>1988</v>
       </c>
       <c r="P6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
-        <v>39</v>
-      </c>
       <c r="S6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB6" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" t="s">
         <v>44</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="AD6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s">
         <v>46</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>47</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>48</v>
       </c>
       <c r="AG6" t="s">
         <v>51</v>
@@ -1307,49 +1373,61 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>1988</v>
       </c>
       <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>39</v>
       </c>
       <c r="S7" t="s">
         <v>60</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s">
+        <v>41</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AB7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC7" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>47</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>48</v>
       </c>
       <c r="AG7" t="s">
         <v>52</v>
@@ -1357,7 +1435,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1366,52 +1444,68 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>13234234234</v>
+      </c>
+      <c r="H8">
+        <v>1.28</v>
+      </c>
+      <c r="I8">
+        <v>1.23457891</v>
+      </c>
+      <c r="J8">
+        <v>1234</v>
+      </c>
+      <c r="K8">
+        <v>1234</v>
+      </c>
+      <c r="L8">
+        <v>111111111</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" s="2"/>
+      <c r="V8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" t="s">
-        <v>61</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>40</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>41</v>
       </c>
-      <c r="X8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="3" t="s">
         <v>71</v>
       </c>
       <c r="AB8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC8" t="s">
         <v>44</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>45</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>46</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>47</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>48</v>
       </c>
       <c r="AG8" t="s">
         <v>53</v>
@@ -1419,19 +1513,19 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>6</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
       </c>
       <c r="G9">
         <v>13234234234</v>
@@ -1452,44 +1546,44 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" t="s">
         <v>38</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>39</v>
       </c>
       <c r="T9" s="2"/>
       <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" t="s">
         <v>40</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>41</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="AB9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC9" t="s">
         <v>44</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>45</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>46</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>47</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>48</v>
       </c>
       <c r="AG9" t="s">
         <v>54</v>
@@ -1497,7 +1591,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1506,13 +1600,13 @@
         <v>5</v>
       </c>
       <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
       <c r="G10">
-        <v>13234234234</v>
+        <v>1213123</v>
       </c>
       <c r="H10">
         <v>1.28</v>
@@ -1530,44 +1624,49 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>40</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>41</v>
       </c>
-      <c r="X10" t="s">
-        <v>42</v>
-      </c>
       <c r="Y10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" t="s">
         <v>43</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>44</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>45</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>46</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>47</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>48</v>
       </c>
       <c r="AG10" t="s">
         <v>55</v>
@@ -1575,7 +1674,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1584,13 +1683,13 @@
         <v>5</v>
       </c>
       <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
-        <v>1213123</v>
+        <v>13234234234</v>
       </c>
       <c r="H11">
         <v>1.28</v>
@@ -1608,16 +1707,16 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
         <v>38</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>39</v>
       </c>
       <c r="S11" t="s">
         <v>62</v>
@@ -1626,31 +1725,31 @@
         <v>66</v>
       </c>
       <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
         <v>40</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>41</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AB11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC11" t="s">
         <v>44</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>45</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>46</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>47</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>48</v>
       </c>
       <c r="AG11" t="s">
         <v>56</v>
@@ -1658,7 +1757,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1667,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="E12">
+        <v>128</v>
+      </c>
+      <c r="F12">
         <v>9</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
       </c>
       <c r="G12">
         <v>13234234234</v>
@@ -1691,57 +1790,57 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
       <c r="P12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="S12" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>40</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>41</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AB12" t="s">
         <v>43</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>44</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>45</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>46</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>47</v>
       </c>
-      <c r="AF12" t="s">
-        <v>48</v>
-      </c>
       <c r="AG12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1753,7 +1852,7 @@
         <v>128</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>13234234234</v>
@@ -1774,57 +1873,57 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>1989</v>
+      </c>
+      <c r="P13" t="s">
         <v>37</v>
       </c>
-      <c r="O13">
-        <v>1988</v>
-      </c>
-      <c r="P13" t="s">
-        <v>38</v>
-      </c>
       <c r="Q13" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="AB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC13" t="s">
         <v>44</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>45</v>
       </c>
-      <c r="AD13" t="s">
-        <v>46</v>
-      </c>
       <c r="AE13" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AF13" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1836,7 +1935,7 @@
         <v>128</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>13234234234</v>
@@ -1857,57 +1956,57 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14">
+        <v>1990</v>
+      </c>
+      <c r="P14" t="s">
         <v>37</v>
       </c>
-      <c r="O14">
-        <v>1989</v>
-      </c>
-      <c r="P14" t="s">
-        <v>38</v>
-      </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="W14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="X14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s">
         <v>45</v>
       </c>
-      <c r="AD14" t="s">
-        <v>46</v>
-      </c>
       <c r="AE14" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1919,7 +2018,7 @@
         <v>128</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>13234234234</v>
@@ -1940,140 +2039,57 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15">
+        <v>1991</v>
+      </c>
+      <c r="P15" t="s">
         <v>37</v>
       </c>
-      <c r="O15">
-        <v>1990</v>
-      </c>
-      <c r="P15" t="s">
-        <v>38</v>
-      </c>
       <c r="Q15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="V15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="W15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="X15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AB15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" t="s">
         <v>45</v>
       </c>
-      <c r="AD15" t="s">
-        <v>46</v>
-      </c>
       <c r="AE15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>128</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>13234234234</v>
-      </c>
-      <c r="H16">
-        <v>1.28</v>
-      </c>
-      <c r="I16">
-        <v>1.23457891</v>
-      </c>
-      <c r="J16">
-        <v>1234</v>
-      </c>
-      <c r="K16">
-        <v>1234</v>
-      </c>
-      <c r="L16">
-        <v>111111111</v>
-      </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16">
-        <v>1991</v>
-      </c>
-      <c r="P16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16" t="s">
-        <v>104</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V16" t="s">
-        <v>106</v>
-      </c>
-      <c r="W16" t="s">
-        <v>107</v>
-      </c>
-      <c r="X16" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE16" t="s">
         <v>111</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D900990B-5E43-457B-B4B7-5630DFF09E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE4D63-6223-43F3-96A3-C1AECF1BF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31170" yWindow="2640" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29775" yWindow="2250" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>__type__</t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>##</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1016,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1713,7 +1717,7 @@
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
         <v>38</v>
@@ -1795,8 +1799,8 @@
       <c r="O12">
         <v>1988</v>
       </c>
-      <c r="P12" t="s">
-        <v>37</v>
+      <c r="P12" s="2">
+        <v>1</v>
       </c>
       <c r="Q12" t="s">
         <v>38</v>
@@ -1878,8 +1882,8 @@
       <c r="O13">
         <v>1989</v>
       </c>
-      <c r="P13" t="s">
-        <v>37</v>
+      <c r="P13">
+        <v>1</v>
       </c>
       <c r="Q13" t="s">
         <v>77</v>
@@ -1961,8 +1965,8 @@
       <c r="O14">
         <v>1990</v>
       </c>
-      <c r="P14" t="s">
-        <v>37</v>
+      <c r="P14">
+        <v>2</v>
       </c>
       <c r="Q14" t="s">
         <v>89</v>
@@ -2044,8 +2048,8 @@
       <c r="O15">
         <v>1991</v>
       </c>
-      <c r="P15" t="s">
-        <v>37</v>
+      <c r="P15">
+        <v>4</v>
       </c>
       <c r="Q15" t="s">
         <v>101</v>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE4D63-6223-43F3-96A3-C1AECF1BF690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E7124-A004-46E5-BEBC-E894CF26A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="2250" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,74 +354,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>x14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;sep=,</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;sep=,</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;sep=,</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>k8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;sep=,</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> DemoD3</t>
   </si>
   <si>
@@ -659,6 +591,22 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>x14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>k15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1020,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1046,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1094,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>57</v>
@@ -1122,18 +1070,18 @@
         <v>21</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1174,7 +1122,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1248,10 +1196,10 @@
         <v>42</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
         <v>45</v>
@@ -1310,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="s">
         <v>45</v>
@@ -1717,7 +1665,7 @@
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q11" t="s">
         <v>38</v>
@@ -1844,7 +1792,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1886,28 +1834,28 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s">
         <v>77</v>
       </c>
-      <c r="S13" t="s">
+      <c r="X13" t="s">
         <v>78</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="Y13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="V13" t="s">
+      <c r="AB13" t="s">
         <v>80</v>
-      </c>
-      <c r="W13" t="s">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>84</v>
       </c>
       <c r="AC13" t="s">
         <v>44</v>
@@ -1916,18 +1864,18 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AG13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1969,28 +1917,28 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W14" t="s">
         <v>89</v>
       </c>
-      <c r="S14" t="s">
+      <c r="X14" t="s">
         <v>90</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="Y14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="V14" t="s">
+      <c r="AB14" t="s">
         <v>92</v>
-      </c>
-      <c r="W14" t="s">
-        <v>93</v>
-      </c>
-      <c r="X14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>96</v>
       </c>
       <c r="AC14" t="s">
         <v>44</v>
@@ -1999,18 +1947,18 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AF14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AG14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2052,28 +2000,28 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" t="s">
+        <v>100</v>
+      </c>
+      <c r="W15" t="s">
         <v>101</v>
       </c>
-      <c r="S15" t="s">
+      <c r="X15" t="s">
         <v>102</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="Y15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V15" t="s">
+      <c r="AB15" t="s">
         <v>104</v>
-      </c>
-      <c r="W15" t="s">
-        <v>105</v>
-      </c>
-      <c r="X15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>108</v>
       </c>
       <c r="AC15" t="s">
         <v>44</v>
@@ -2082,13 +2030,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AF15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AG15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E7124-A004-46E5-BEBC-E894CF26A0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742BAF3-ED5D-420A-B2D8-6428FC2C9A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31230" yWindow="1800" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
   <si>
     <t>__type__</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve"> DemoD2</t>
-  </si>
-  <si>
-    <t>huang</t>
   </si>
   <si>
     <t>A</t>
@@ -607,6 +604,17 @@
   </si>
   <si>
     <t>k15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[10000]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas</t>
+  </si>
+  <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[20000]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,6 +992,7 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="19.375" customWidth="1"/>
     <col min="12" max="12" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="43.375" customWidth="1"/>
     <col min="17" max="17" width="11.375" customWidth="1"/>
     <col min="24" max="24" width="14.125" customWidth="1"/>
     <col min="25" max="25" width="20.375" customWidth="1"/>
@@ -994,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1042,10 +1051,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" s="4"/>
       <c r="V1" t="s">
@@ -1070,18 +1079,18 @@
         <v>21</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1122,7 +1131,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1165,53 +1174,53 @@
       <c r="L4">
         <v>111111111</v>
       </c>
-      <c r="M4" t="s">
-        <v>36</v>
+      <c r="M4" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="O4">
         <v>1988</v>
       </c>
       <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" t="s">
         <v>38</v>
       </c>
-      <c r="S4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>40</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="AB4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>47</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1231,46 +1240,46 @@
         <v>1988</v>
       </c>
       <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
         <v>38</v>
       </c>
-      <c r="S5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>40</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="AC5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" t="s">
-        <v>47</v>
-      </c>
       <c r="AG5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1290,37 +1299,37 @@
         <v>1988</v>
       </c>
       <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
       <c r="S6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" t="s">
-        <v>47</v>
-      </c>
       <c r="AG6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -1343,46 +1352,46 @@
         <v>1988</v>
       </c>
       <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>40</v>
       </c>
-      <c r="X7" t="s">
-        <v>41</v>
-      </c>
       <c r="Y7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" t="s">
         <v>43</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>44</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" t="s">
-        <v>47</v>
-      </c>
       <c r="AG7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1419,48 +1428,48 @@
       <c r="L8">
         <v>111111111</v>
       </c>
-      <c r="M8" t="s">
-        <v>36</v>
+      <c r="M8" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
         <v>37</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
       </c>
       <c r="T8" s="2"/>
       <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
         <v>39</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>40</v>
       </c>
-      <c r="X8" t="s">
-        <v>41</v>
-      </c>
       <c r="Y8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="s">
         <v>43</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" t="s">
-        <v>47</v>
-      </c>
       <c r="AG8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -1498,47 +1507,47 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
         <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>38</v>
       </c>
       <c r="T9" s="2"/>
       <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
         <v>39</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>40</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AB9" t="s">
         <v>42</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>43</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>44</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" t="s">
-        <v>47</v>
-      </c>
       <c r="AG9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1576,52 +1585,52 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
         <v>38</v>
       </c>
-      <c r="S10" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>39</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>40</v>
       </c>
-      <c r="X10" t="s">
-        <v>41</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC10" t="s">
         <v>43</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>45</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" t="s">
-        <v>47</v>
-      </c>
       <c r="AG10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -1659,52 +1668,52 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="S11" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>39</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>40</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AB11" t="s">
         <v>42</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>43</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>44</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>45</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>46</v>
       </c>
-      <c r="AF11" t="s">
-        <v>47</v>
-      </c>
       <c r="AG11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -1742,7 +1751,7 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O12">
         <v>1988</v>
@@ -1751,48 +1760,48 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="S12" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>39</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>40</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AB12" t="s">
         <v>42</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>43</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>44</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>45</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" t="s">
-        <v>47</v>
-      </c>
       <c r="AG12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1825,7 +1834,7 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O13">
         <v>1989</v>
@@ -1834,48 +1843,48 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="S13" t="s">
         <v>73</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="V13" t="s">
         <v>75</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>76</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>77</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AB13" t="s">
         <v>79</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE13" t="s">
         <v>80</v>
       </c>
-      <c r="AC13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>81</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>82</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1908,7 +1917,7 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O14">
         <v>1990</v>
@@ -1917,48 +1926,48 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" t="s">
         <v>85</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="V14" t="s">
         <v>87</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>88</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>89</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="AB14" t="s">
         <v>91</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s">
         <v>92</v>
       </c>
-      <c r="AC14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>93</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>94</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1991,7 +2000,7 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="O15">
         <v>1991</v>
@@ -2000,43 +2009,43 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
+        <v>96</v>
+      </c>
+      <c r="S15" t="s">
         <v>97</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="V15" t="s">
         <v>99</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>100</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>101</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="AB15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE15" t="s">
         <v>104</v>
       </c>
-      <c r="AC15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>105</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>106</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742BAF3-ED5D-420A-B2D8-6428FC2C9A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8787EB46-D21B-417D-9AD0-8C073B55B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31230" yWindow="1800" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="615" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
   <si>
     <t>__type__</t>
   </si>
@@ -160,34 +160,7 @@
     <t>1,2,3,4</t>
   </si>
   <si>
-    <t>1,true,2,false</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,3</t>
-  </si>
-  <si>
     <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,5</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,6</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,7</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,8</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,9</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,10</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,11</t>
   </si>
   <si>
     <t>s1</t>
@@ -404,12 +377,6 @@
     <t>1,2,3,5</t>
   </si>
   <si>
-    <t>1,true,3,false</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DemoD4</t>
   </si>
   <si>
@@ -463,12 +430,6 @@
     <t>1,2,3,6</t>
   </si>
   <si>
-    <t>1,true,4,false</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DemoD5</t>
   </si>
   <si>
@@ -522,12 +483,6 @@
     <t>1,2,3,7</t>
   </si>
   <si>
-    <t>1,true,5,false</t>
-  </si>
-  <si>
-    <t>测试别名,1,2,DemoE1,1,2,14</t>
-  </si>
-  <si>
     <t>1,2,4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -616,6 +571,80 @@
   <si>
     <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[20000]</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,true;2,false</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,true;3,false</t>
+  </si>
+  <si>
+    <t>1,true;4,false</t>
+  </si>
+  <si>
+    <t>1,true;5,false</t>
+  </si>
+  <si>
+    <t>1,true;6,false</t>
+  </si>
+  <si>
+    <t>1,true;7,false</t>
+  </si>
+  <si>
+    <t>1,true;8,false</t>
+  </si>
+  <si>
+    <t>1,true;9,false</t>
+  </si>
+  <si>
+    <t>1,true;10,false</t>
+  </si>
+  <si>
+    <t>1,true;11,false</t>
+  </si>
+  <si>
+    <t>1,true;12,false</t>
+  </si>
+  <si>
+    <t>1,true;13,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,4</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,5</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,6</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,7</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,8</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,9</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,10</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,11</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,12</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,13</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,14</t>
   </si>
 </sst>
 </file>
@@ -976,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1051,10 +1080,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="T1" s="4"/>
       <c r="V1" t="s">
@@ -1079,18 +1108,18 @@
         <v>21</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1131,7 +1160,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -1175,7 +1204,7 @@
         <v>111111111</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="O4">
         <v>1988</v>
@@ -1187,10 +1216,10 @@
         <v>37</v>
       </c>
       <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="V4" t="s">
         <v>38</v>
@@ -1205,10 +1234,10 @@
         <v>41</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
         <v>44</v>
@@ -1217,10 +1246,10 @@
         <v>45</v>
       </c>
       <c r="AF4" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -1246,10 +1275,10 @@
         <v>37</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="V5" t="s">
         <v>38</v>
@@ -1267,7 +1296,7 @@
         <v>42</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
         <v>44</v>
@@ -1276,10 +1305,10 @@
         <v>45</v>
       </c>
       <c r="AF5" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -1305,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="S6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="Y6" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AB6" t="s">
         <v>42</v>
@@ -1326,10 +1355,10 @@
         <v>45</v>
       </c>
       <c r="AF6" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="AG6" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -1358,10 +1387,10 @@
         <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
         <v>38</v>
@@ -1373,7 +1402,7 @@
         <v>40</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="s">
         <v>42</v>
@@ -1388,10 +1417,10 @@
         <v>45</v>
       </c>
       <c r="AF7" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="AG7" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -1429,7 +1458,7 @@
         <v>111111111</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>1988</v>
@@ -1451,7 +1480,7 @@
         <v>40</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AB8" t="s">
         <v>42</v>
@@ -1466,10 +1495,10 @@
         <v>45</v>
       </c>
       <c r="AF8" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -1507,7 +1536,7 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O9">
         <v>1988</v>
@@ -1544,10 +1573,10 @@
         <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -1585,7 +1614,7 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O10">
         <v>1988</v>
@@ -1597,10 +1626,10 @@
         <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
         <v>38</v>
@@ -1612,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB10" t="s">
         <v>42</v>
@@ -1627,10 +1656,10 @@
         <v>45</v>
       </c>
       <c r="AF10" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
@@ -1668,22 +1697,22 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
         <v>38</v>
@@ -1710,10 +1739,10 @@
         <v>45</v>
       </c>
       <c r="AF11" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
@@ -1751,7 +1780,7 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O12">
         <v>1988</v>
@@ -1763,10 +1792,10 @@
         <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
         <v>38</v>
@@ -1793,15 +1822,15 @@
         <v>45</v>
       </c>
       <c r="AF12" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="AG12" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1834,7 +1863,7 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O13">
         <v>1989</v>
@@ -1843,28 +1872,28 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="S13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="X13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AB13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AC13" t="s">
         <v>43</v>
@@ -1873,18 +1902,18 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AG13" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1917,7 +1946,7 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O14">
         <v>1990</v>
@@ -1926,28 +1955,28 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s">
         <v>43</v>
@@ -1956,18 +1985,18 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AF14" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="AG14" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2000,7 +2029,7 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="O15">
         <v>1991</v>
@@ -2009,28 +2038,28 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="W15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="X15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AB15" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AC15" t="s">
         <v>43</v>
@@ -2039,13 +2068,13 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AF15" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="AG15" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8787EB46-D21B-417D-9AD0-8C073B55B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="615" windowWidth="25140" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22800" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
   <si>
     <t>__type__</t>
   </si>
@@ -67,6 +83,12 @@
     <t>x13</t>
   </si>
   <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
     <t>v2</t>
   </si>
   <si>
@@ -88,6 +110,18 @@
     <t>k5</t>
   </si>
   <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>k15</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>禁止</t>
   </si>
   <si>
@@ -130,339 +164,422 @@
     <t xml:space="preserve"> DemoD2</t>
   </si>
   <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[10000]</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2</t>
+  </si>
+  <si>
+    <t>test/a</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.8</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:09</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1;2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,true;2,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,3</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>DemoD2,1,2</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>10.2,2.3,3.4,12.8</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:09</t>
-  </si>
-  <si>
-    <t>1;2;3</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>1,2,7</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>s1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/a</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>key1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>key2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>key3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,true;3,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,4</t>
+  </si>
+  <si>
+    <t>asdfa2</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>1,true;4,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,5</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>1999-8-4 10:09:09</t>
+  </si>
+  <si>
+    <t>1,true;5,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,6</t>
+  </si>
+  <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[20000]</t>
+  </si>
+  <si>
+    <t>2020-1-1 00:00:00</t>
+  </si>
+  <si>
+    <t>1,true;6,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,7</t>
+  </si>
+  <si>
+    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas</t>
+  </si>
+  <si>
+    <t>1,true;7,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,8</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>7</t>
     </r>
+  </si>
+  <si>
+    <t>1,true;8,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,9</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>8</t>
     </r>
+  </si>
+  <si>
+    <t>1,true;9,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,10</t>
+  </si>
+  <si>
+    <t>1,true;10,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD3</t>
+  </si>
+  <si>
+    <t>DemoD2,1,3</t>
+  </si>
+  <si>
+    <t>key4</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>xx</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdfa2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999-8-4 10:09:09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-1-1 00:00:00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> DemoD3</t>
-  </si>
-  <si>
-    <t>DemoD2,1,3</t>
-  </si>
-  <si>
-    <t>key4</t>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>9</t>
     </r>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.9</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:10</t>
+  </si>
+  <si>
+    <t>1;2;4</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,true;11,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD4</t>
+  </si>
+  <si>
+    <t>DemoD2,1,4</t>
+  </si>
+  <si>
+    <t>key5</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
-    <t>10.2,2.3,3.4,12.9</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:10</t>
-  </si>
-  <si>
-    <t>1;2;4</t>
-  </si>
-  <si>
-    <t>1,2,3,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DemoD4</t>
-  </si>
-  <si>
-    <t>DemoD2,1,4</t>
-  </si>
-  <si>
-    <t>key5</t>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
     </r>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,3,6</t>
+  </si>
+  <si>
+    <t>10.2,2.3,3.4,12.10</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:11</t>
+  </si>
+  <si>
+    <t>1;2;5</t>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+  </si>
+  <si>
+    <t>1,true;12,false</t>
+  </si>
+  <si>
+    <t>测试别名,1,2;DemoE1,1,2,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DemoD5</t>
+  </si>
+  <si>
+    <t>DemoD2,1,5</t>
+  </si>
+  <si>
+    <t>key6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>2,3,6</t>
-  </si>
-  <si>
-    <t>10.2,2.3,3.4,12.10</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:11</t>
-  </si>
-  <si>
-    <t>1;2;5</t>
-  </si>
-  <si>
-    <t>1,2,3,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DemoD5</t>
-  </si>
-  <si>
-    <t>DemoD2,1,5</t>
-  </si>
-  <si>
-    <t>key6</t>
-  </si>
-  <si>
-    <r>
       <t>asdfa</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>11</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <t>1,5</t>
@@ -483,165 +600,7 @@
     <t>1,2,3,7</t>
   </si>
   <si>
-    <t>1,2,4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1,2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1;2;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>k15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[10000]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas</t>
-  </si>
-  <si>
-    <t>Assets/GoodsIcon/GoodsIcon.spriteatlas[20000]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,true;2,false</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,true;3,false</t>
-  </si>
-  <si>
-    <t>1,true;4,false</t>
-  </si>
-  <si>
-    <t>1,true;5,false</t>
-  </si>
-  <si>
-    <t>1,true;6,false</t>
-  </si>
-  <si>
-    <t>1,true;7,false</t>
-  </si>
-  <si>
-    <t>1,true;8,false</t>
-  </si>
-  <si>
-    <t>1,true;9,false</t>
-  </si>
-  <si>
-    <t>1,true;10,false</t>
-  </si>
-  <si>
-    <t>1,true;11,false</t>
-  </si>
-  <si>
-    <t>1,true;12,false</t>
-  </si>
-  <si>
     <t>1,true;13,false</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,4</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,5</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,6</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,7</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,8</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,9</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,10</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,11</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,12</t>
-  </si>
-  <si>
-    <t>测试别名,1,2;DemoE1,1,2,13</t>
   </si>
   <si>
     <t>测试别名,1,2;DemoE1,1,2,14</t>
@@ -650,47 +609,174 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +789,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -712,34 +978,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -997,181 +1545,181 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="15.5047619047619" customWidth="1"/>
+    <col min="3" max="3" width="17.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="16.625" customWidth="1"/>
-    <col min="13" max="13" width="43.375" customWidth="1"/>
-    <col min="17" max="17" width="11.375" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="20.375" customWidth="1"/>
-    <col min="26" max="26" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="16.3714285714286" customWidth="1"/>
+    <col min="7" max="7" width="14.3714285714286" customWidth="1"/>
+    <col min="8" max="8" width="13.247619047619" customWidth="1"/>
+    <col min="9" max="9" width="19.3714285714286" customWidth="1"/>
+    <col min="12" max="12" width="16.6285714285714" customWidth="1"/>
+    <col min="13" max="13" width="43.3714285714286" customWidth="1"/>
+    <col min="17" max="17" width="11.3714285714286" customWidth="1"/>
+    <col min="24" max="24" width="14.1238095238095" customWidth="1"/>
+    <col min="25" max="25" width="20.3714285714286" customWidth="1"/>
+    <col min="26" max="26" width="14.1238095238095" customWidth="1"/>
+    <col min="32" max="32" width="11.5047619047619" customWidth="1"/>
+    <col min="33" max="33" width="28.752380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>95</v>
+    <row r="1" spans="1:33">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>101</v>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1203,58 +1751,56 @@
       <c r="L4">
         <v>111111111</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>102</v>
+      <c r="M4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="O4">
         <v>1988</v>
       </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
-      </c>
       <c r="X4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AD4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1269,51 +1815,51 @@
         <v>1988</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD5" t="s">
         <v>53</v>
       </c>
-      <c r="V5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AE5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="B6" t="s">
         <v>42</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>35</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1328,42 +1874,42 @@
         <v>1988</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>59</v>
+      <c r="T6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="AB6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33">
+      <c r="B7" t="s">
         <v>42</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>35</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1381,51 +1927,51 @@
         <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" t="s">
         <v>54</v>
       </c>
-      <c r="V7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1457,53 +2003,53 @@
       <c r="L8">
         <v>111111111</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>104</v>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="X8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" t="s">
         <v>61</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33">
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>35</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1536,52 +2082,52 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="X9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="AB9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33">
+      <c r="B10" t="s">
         <v>42</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>35</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1614,57 +2160,57 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="AB10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="B11" t="s">
         <v>42</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>35</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1697,57 +2243,57 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="V11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="X11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="AB11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="B12" t="s">
         <v>42</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1780,57 +2326,57 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O12">
         <v>1988</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="X12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="AB12" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AC12" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AD12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AF12" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AG12" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1863,7 +2409,7 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O13">
         <v>1989</v>
@@ -1872,48 +2418,48 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="V13" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="X13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AD13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE13" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" customHeight="1" spans="2:33">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1946,7 +2492,7 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O14">
         <v>1990</v>
@@ -1955,48 +2501,48 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="S14" t="s">
-        <v>74</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>75</v>
+        <v>105</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="V14" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="W14" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="X14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="AB14" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AC14" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE14" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AF14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" spans="2:33">
+      <c r="B15" t="s">
         <v>115</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>82</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2029,7 +2575,7 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O15">
         <v>1991</v>
@@ -2038,51 +2584,51 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="V15" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="W15" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="X15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="AB15" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="AC15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AD15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AE15" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AF15" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AG15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="S1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -499,7 +499,7 @@
     <t xml:space="preserve"> DemoD4</t>
   </si>
   <si>
-    <t>DemoD2,1,4</t>
+    <t>test.login.RoleInfo,1,4,10000</t>
   </si>
   <si>
     <t>key5</t>
@@ -611,19 +611,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,9 +632,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,22 +655,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,13 +672,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,14 +708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -755,7 +733,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,7 +763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,181 +784,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +972,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,6 +992,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,36 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1076,10 +1058,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1097,141 +1090,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,7 +1547,7 @@
   <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1757,7 +1750,6 @@
       <c r="O4">
         <v>1988</v>
       </c>
-      <c r="P4"/>
       <c r="Q4" t="s">
         <v>44</v>
       </c>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="7230"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -101,13 +101,13 @@
     <t>t1</t>
   </si>
   <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>k5</t>
+    <t>k1&amp;sep=;</t>
+  </si>
+  <si>
+    <t>k2&amp;sep=,</t>
+  </si>
+  <si>
+    <t>k5&amp;sep=,</t>
   </si>
   <si>
     <t>k8</t>
@@ -143,13 +143,16 @@
     <t>x7:double</t>
   </si>
   <si>
-    <t>array:int</t>
-  </si>
-  <si>
-    <t>set:int</t>
-  </si>
-  <si>
-    <t>map:int:int</t>
+    <t>array,int</t>
+  </si>
+  <si>
+    <t>list,in</t>
+  </si>
+  <si>
+    <t>set,int</t>
+  </si>
+  <si>
+    <t>map,int,int</t>
   </si>
   <si>
     <t>测试结构列表</t>
@@ -612,8 +615,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -632,14 +635,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -654,8 +649,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,14 +689,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -705,14 +701,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,8 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,9 +735,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,13 +787,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +931,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -814,145 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +972,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -995,225 +1072,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1546,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1567,6 +1570,7 @@
     <col min="24" max="24" width="14.1238095238095" customWidth="1"/>
     <col min="25" max="25" width="20.3714285714286" customWidth="1"/>
     <col min="26" max="26" width="14.1238095238095" customWidth="1"/>
+    <col min="31" max="31" width="14.4285714285714" customWidth="1"/>
     <col min="32" max="32" width="11.5047619047619" customWidth="1"/>
     <col min="33" max="33" width="28.752380952381" customWidth="1"/>
   </cols>
@@ -1687,16 +1691,16 @@
         <v>36</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1704,15 +1708,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1745,54 +1749,54 @@
         <v>111111111</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4">
         <v>1988</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:33">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1807,51 +1811,51 @@
         <v>1988</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:33">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1866,42 +1870,42 @@
         <v>1988</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:33">
       <c r="B7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1919,51 +1923,51 @@
         <v>1988</v>
       </c>
       <c r="P7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="V7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:33">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1996,52 +2000,52 @@
         <v>111111111</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <v>1988</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T8" s="1"/>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:33">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -2074,52 +2078,52 @@
         <v>111111111</v>
       </c>
       <c r="M9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O9">
         <v>1988</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T9" s="1"/>
       <c r="V9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:33">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -2152,57 +2156,57 @@
         <v>111111111</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O10">
         <v>1988</v>
       </c>
       <c r="P10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -2235,57 +2239,57 @@
         <v>111111111</v>
       </c>
       <c r="M11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O11">
         <v>1988</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:33">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2318,7 +2322,7 @@
         <v>111111111</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O12">
         <v>1988</v>
@@ -2327,48 +2331,48 @@
         <v>1</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:33">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -2401,7 +2405,7 @@
         <v>111111111</v>
       </c>
       <c r="M13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O13">
         <v>1989</v>
@@ -2410,48 +2414,48 @@
         <v>1</v>
       </c>
       <c r="Q13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="2:33">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -2484,7 +2488,7 @@
         <v>111111111</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O14">
         <v>1990</v>
@@ -2493,48 +2497,48 @@
         <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="2:33">
       <c r="B15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -2567,7 +2571,7 @@
         <v>111111111</v>
       </c>
       <c r="M15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O15">
         <v>1991</v>
@@ -2576,43 +2580,43 @@
         <v>4</v>
       </c>
       <c r="Q15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AB15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/full_type.xlsx
+++ b/DesignerConfigs/Datas/test/full_type.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="19890" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,13 +101,13 @@
     <t>t1</t>
   </si>
   <si>
-    <t>k1&amp;sep=;</t>
-  </si>
-  <si>
-    <t>k2&amp;sep=,</t>
-  </si>
-  <si>
-    <t>k5&amp;sep=,</t>
+    <t>k1#sep=;</t>
+  </si>
+  <si>
+    <t>k2#sep=,</t>
+  </si>
+  <si>
+    <t>k5#sep=,</t>
   </si>
   <si>
     <t>k8</t>
@@ -1549,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
